--- a/results_metrics/total_metrics.xlsx
+++ b/results_metrics/total_metrics.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,22 +459,38 @@
           <t>lcom_total</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>repositorios_total</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>arquivos_java_total</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3858</v>
+        <v>79444253</v>
       </c>
       <c r="B2" t="n">
-        <v>2290</v>
+        <v>387916165</v>
       </c>
       <c r="C2" t="n">
-        <v>219</v>
+        <v>9095865</v>
       </c>
       <c r="D2" t="n">
-        <v>108</v>
+        <v>2161945</v>
       </c>
       <c r="E2" t="n">
-        <v>506</v>
+        <v>458187438</v>
+      </c>
+      <c r="F2" t="n">
+        <v>949</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1454435</v>
       </c>
     </row>
   </sheetData>
